--- a/用例数据/股转/股份非交易过户/测试结果.xlsx
+++ b/用例数据/股转/股份非交易过户/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28128" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="272">
   <si>
     <t>ACCTID</t>
   </si>
@@ -751,9 +751,6 @@
     <t>00001</t>
   </si>
   <si>
-    <t>20211220000000</t>
-  </si>
-  <si>
     <t>4000</t>
   </si>
   <si>
@@ -793,27 +790,6 @@
     <t>三板转债test6</t>
   </si>
   <si>
-    <t>20211220235959</t>
-  </si>
-  <si>
-    <t>150051</t>
-  </si>
-  <si>
-    <t>20211221091416</t>
-  </si>
-  <si>
-    <t>9972270.420</t>
-  </si>
-  <si>
-    <t>000006867164</t>
-  </si>
-  <si>
-    <t>150052</t>
-  </si>
-  <si>
-    <t>000006867165</t>
-  </si>
-  <si>
     <t>202900.0000</t>
   </si>
   <si>
@@ -824,6 +800,42 @@
   </si>
   <si>
     <t>98.3500</t>
+  </si>
+  <si>
+    <t>OTHERFEE4</t>
+  </si>
+  <si>
+    <t>30052763</t>
+  </si>
+  <si>
+    <t>20221007203502</t>
+  </si>
+  <si>
+    <t>20221007000000</t>
+  </si>
+  <si>
+    <t>999286662.010</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>000006907707</t>
+  </si>
+  <si>
+    <t>1.0000000000</t>
+  </si>
+  <si>
+    <t>30052804</t>
+  </si>
+  <si>
+    <t>999266984.470</t>
+  </si>
+  <si>
+    <t>000006907748</t>
   </si>
 </sst>
 </file>
@@ -848,6 +860,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1187,93 +1200,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.625" style="1" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="27.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="87" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1533,15 +1546,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>53</v>
@@ -1553,10 +1566,10 @@
         <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>25</v>
@@ -1568,7 +1581,7 @@
         <v>132</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>24</v>
@@ -1613,7 +1626,7 @@
         <v>26</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>25</v>
@@ -1736,7 +1749,7 @@
         <v>132</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>24</v>
@@ -1793,7 +1806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1813,31 +1826,31 @@
         <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>25</v>
@@ -1873,7 +1886,7 @@
         <v>26</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>25</v>
@@ -1993,10 +2006,10 @@
         <v>25</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>24</v>
@@ -2062,147 +2075,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EH3"/>
+  <dimension ref="A1:EI3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="101" max="102" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="107" max="108" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="139" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>143</v>
       </c>
@@ -2617,28 +2630,31 @@
       <c r="EH1" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="EI1" s="1" t="s">
+        <v>260</v>
+      </c>
     </row>
-    <row r="2" spans="1:138" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>21</v>
@@ -2653,10 +2669,10 @@
         <v>54</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>42</v>
@@ -2674,28 +2690,28 @@
         <v>56</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>24</v>
@@ -2794,7 +2810,7 @@
         <v>25</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>32</v>
+        <v>265</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>27</v>
@@ -2824,7 +2840,7 @@
         <v>22</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>25</v>
+        <v>266</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>24</v>
@@ -2833,7 +2849,7 @@
         <v>24</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="CE2" s="1" t="s">
         <v>24</v>
@@ -2842,13 +2858,13 @@
         <v>25</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>30</v>
@@ -2881,7 +2897,7 @@
         <v>27</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>133</v>
+        <v>268</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>24</v>
@@ -2937,31 +2953,34 @@
       <c r="EG2" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="EI2" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:138" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>55</v>
@@ -2973,10 +2992,10 @@
         <v>53</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>42</v>
@@ -2994,16 +3013,16 @@
         <v>56</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>24</v>
@@ -3012,7 +3031,7 @@
         <v>24</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>134</v>
@@ -3063,7 +3082,7 @@
         <v>43</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AS3" s="1" t="s">
         <v>55</v>
@@ -3114,7 +3133,7 @@
         <v>25</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>32</v>
+        <v>265</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>27</v>
@@ -3144,7 +3163,7 @@
         <v>22</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>25</v>
+        <v>266</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>24</v>
@@ -3153,7 +3172,7 @@
         <v>24</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="CE3" s="1" t="s">
         <v>24</v>
@@ -3162,13 +3181,13 @@
         <v>25</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>30</v>
@@ -3201,7 +3220,7 @@
         <v>27</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>133</v>
+        <v>268</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>24</v>
@@ -3256,6 +3275,9 @@
       </c>
       <c r="EG3" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="EI3" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
